--- a/resources/locators/locators.xlsx
+++ b/resources/locators/locators.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" tabRatio="669" activeTab="2"/>
+    <workbookView xWindow="9660" yWindow="2720" windowWidth="16140" windowHeight="10320" tabRatio="669" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LocatorStrategy" sheetId="31" r:id="rId1"/>
     <sheet name="LoginPage" sheetId="34" r:id="rId2"/>
-    <sheet name="HomePage" sheetId="30" r:id="rId3"/>
+    <sheet name="DressPage" sheetId="35" r:id="rId3"/>
+    <sheet name="HomePage" sheetId="30" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>Element Name</t>
   </si>
@@ -114,6 +115,21 @@
   </si>
   <si>
     <t>lbl_search_result_locator</t>
+  </si>
+  <si>
+    <t>nav_bar_dress_link</t>
+  </si>
+  <si>
+    <t>(//li[@class='sfHoverForce']/a[@title='Dresses'])[1]</t>
+  </si>
+  <si>
+    <t>nav_bar_Even_dress_link</t>
+  </si>
+  <si>
+    <t>(//li/a[@title='Evening Dresses'])[1]</t>
+  </si>
+  <si>
+    <t>//ul[@class='product_list grid row']//a[contains(text(),'Printed Chiffon Dress')]</t>
   </si>
 </sst>
 </file>
@@ -201,8 +217,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -245,7 +269,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -254,6 +278,10 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -262,6 +290,10 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1484,53 +1516,53 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="8" customWidth="1"/>
-    <col min="2" max="252" width="8.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="8" customWidth="1"/>
+    <col min="2" max="252" width="8.83203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1556,15 +1588,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="8" customWidth="1"/>
-    <col min="4" max="252" width="8.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.83203125" style="8" customWidth="1"/>
+    <col min="4" max="252" width="8.83203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -1586,7 +1618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -1597,7 +1629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1608,82 +1640,82 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="6"/>
@@ -1704,27 +1736,207 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IS19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="253" width="8.83203125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>LocatorStrategy!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B19</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IS21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="253" width="8.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="253" width="8.83203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:253" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:253" ht="15" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
@@ -1996,7 +2208,7 @@
       <c r="IR2" s="8"/>
       <c r="IS2" s="8"/>
     </row>
-    <row r="3" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:253" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2007,7 +2219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:253" ht="15" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
@@ -2018,7 +2230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:253" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -2029,7 +2241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:253" ht="15" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -2040,7 +2252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:253" ht="15" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -2051,7 +2263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:253" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -2062,67 +2274,67 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:253" ht="15" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:253" ht="15" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:253" ht="15" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:253" ht="15" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:253" ht="15" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:253" ht="15" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:253" ht="15" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:253" ht="15" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="6"/>

--- a/resources/locators/locators.xlsx
+++ b/resources/locators/locators.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="2720" windowWidth="16140" windowHeight="10320" tabRatio="669" activeTab="2"/>
+    <workbookView xWindow="9660" yWindow="2720" windowWidth="16140" windowHeight="10320" tabRatio="669" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LocatorStrategy" sheetId="31" r:id="rId1"/>
@@ -1747,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IS19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1924,7 +1924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IS21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:C8"/>
     </sheetView>
   </sheetViews>
